--- a/Lab_2/Alteracao_Resistencias.xlsx
+++ b/Lab_2/Alteracao_Resistencias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IST\EG_Labs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IST\EG_Labs\Lab_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A44DE3-6404-497F-85FC-55D9B10D60F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AEB82B-795E-4685-ABDC-37F93FAFA75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D881EB74-4916-4A57-BF83-A0FDA6FE2D9C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{D881EB74-4916-4A57-BF83-A0FDA6FE2D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="58">
   <si>
     <t>i</t>
   </si>
@@ -66,18 +66,6 @@
     <t>$2R$</t>
   </si>
   <si>
-    <t>$S_1$</t>
-  </si>
-  <si>
-    <t>$S_2$</t>
-  </si>
-  <si>
-    <t>$S_3$</t>
-  </si>
-  <si>
-    <t>$S_4$</t>
-  </si>
-  <si>
     <t>$V_i$</t>
   </si>
   <si>
@@ -90,121 +78,151 @@
     <t>$\frac{85}{43}R$</t>
   </si>
   <si>
-    <t>$\frac{S_1}{R}$</t>
+    <t>$S_1$ [V]</t>
   </si>
   <si>
-    <t>$\frac{1}{4}$</t>
+    <t>$V_0$ [V]</t>
   </si>
   <si>
-    <t>$\frac{5}{32}$</t>
+    <t>$S_2$ [V]</t>
   </si>
   <si>
-    <t>$\frac{21}{128}$</t>
+    <t>$S_3$ [V]</t>
   </si>
   <si>
-    <t>$\frac{58}{512}$</t>
+    <t>$S_4$ [V]</t>
   </si>
   <si>
-    <t>$\frac{S_2}{R}$</t>
+    <t>$Q$</t>
   </si>
   <si>
-    <t>$\frac{S_3}{R}$</t>
+    <t>$\frac{1}{4}</t>
   </si>
   <si>
-    <t>$\frac{S_4}{R}$</t>
+    <t>$\frac{5}{32}</t>
   </si>
   <si>
-    <t>$\frac{3}{16}$</t>
+    <t>$\frac{21}{128}</t>
   </si>
   <si>
-    <t>$\frac{11}{64}$</t>
+    <t>$\frac{58}{512}</t>
   </si>
   <si>
-    <t>$\frac{43}{256}$</t>
+    <t>\frac{S_1}{R}$</t>
   </si>
   <si>
-    <t>$\frac{1}{2^3}$</t>
+    <t>\frac{S_2}{R}$</t>
   </si>
   <si>
-    <t>$\frac{1}{2^2}$</t>
+    <t>\frac{S_3}{R}$</t>
   </si>
   <si>
-    <t>$\frac{1}{2^1}$</t>
+    <t>\frac{S_4}{R}$</t>
   </si>
   <si>
-    <t>$\frac{1}{2^0}$</t>
+    <t>$\frac{3}{16}</t>
   </si>
   <si>
-    <t>$\frac{1}{3}\frac{1}{2^2}$</t>
+    <t>$\frac{11}{64}</t>
   </si>
   <si>
-    <t>$\frac{1}{3}\frac{1}{2^1}$</t>
+    <t>$\frac{43}{256}</t>
   </si>
   <si>
-    <t>$\frac{1}{3}\frac{1}{2^0}$</t>
+    <t>\frac{1}{2^3}</t>
   </si>
   <si>
-    <t>$\frac{2}{2 + 5/3}\frac{1}{3}\frac{1}{2^1}$</t>
+    <t>\frac{1}{2^2}</t>
   </si>
   <si>
-    <t>$\frac{2}{2 + 5/3}\frac{1}{3}\frac{1}{2^0}$</t>
+    <t>\frac{1}{2^1}</t>
   </si>
   <si>
-    <t>$\frac{2}{2 + 21/3}\frac{2}{2 + 5/3}\frac{1}{3}\frac{1}{2^0}$</t>
+    <t>\frac{1}{2^0}</t>
   </si>
   <si>
-    <t>$\frac{4}{2^3}$</t>
+    <t>\frac{1}{3}\frac{1}{2^2}</t>
   </si>
   <si>
-    <t>$\frac{4}{2^2}$</t>
+    <t>\frac{2}{2 + 5/3}\frac{1}{3}\frac{1}{2^1}</t>
   </si>
   <si>
-    <t>$\frac{4}{2^1}$</t>
+    <t>\frac{1}{3}\frac{1}{2^1}</t>
   </si>
   <si>
-    <t>$\frac{4}{2^0}$</t>
+    <t>\frac{2}{2 + 5/3}\frac{1}{3}\frac{1}{2^0}</t>
   </si>
   <si>
-    <t>$\frac{1}{3}\frac{4}{2^2}$</t>
+    <t>\frac{1}{3}\frac{1}{2^0}</t>
   </si>
   <si>
-    <t>$\frac{2}{2 + 5/3}\frac{1}{3}\frac{4}{2^1}$</t>
+    <t>\frac{4}{2^3}</t>
   </si>
   <si>
-    <t>$\frac{1}{3}\frac{4}{2^1}$</t>
+    <t>\frac{4}{2^2}</t>
   </si>
   <si>
-    <t>$\frac{2}{2 + 21/3}\frac{2}{2 + 5/3}\frac{1}{3}\frac{4}{2^0}$</t>
+    <t>\frac{4}{2^1}</t>
   </si>
   <si>
-    <t>$\frac{2}{2 + 5/3}\frac{1}{3}\frac{4}{2^0}$</t>
+    <t>\frac{4}{2^0}</t>
   </si>
   <si>
-    <t>$\frac{1}{3}\frac{4}{2^0}$</t>
+    <t>\frac{1}{3}\frac{4}{2^2}</t>
   </si>
   <si>
-    <t>S1</t>
+    <t>\frac{2}{2 + 5/3}\frac{1}{3}\frac{4}{2^1}</t>
   </si>
   <si>
-    <t>S2</t>
+    <t>\frac{1}{3}\frac{4}{2^1}</t>
   </si>
   <si>
-    <t>S3</t>
+    <t>\frac{2}{2 + 21/3}\frac{2}{2 + 5/3}\frac{1}{3}\frac{4}{2^0}</t>
   </si>
   <si>
-    <t>S4</t>
+    <t>\frac{2}{2 + 5/3}\frac{1}{3}\frac{4}{2^0}</t>
   </si>
   <si>
-    <t>V</t>
+    <t>\frac{1}{3}\frac{4}{2^0}</t>
   </si>
   <si>
-    <t>Q</t>
+    <t>S_1$</t>
+  </si>
+  <si>
+    <t>S_2$</t>
+  </si>
+  <si>
+    <t>S_3$</t>
+  </si>
+  <si>
+    <t>S_4$</t>
+  </si>
+  <si>
+    <t>\frac{2}{2 + 21/11}\frac{2}{2 + 5/3}\frac{1}{3}\frac{1}{2^0}</t>
+  </si>
+  <si>
+    <t>$V_{0\text{teo}}$ [V]</t>
+  </si>
+  <si>
+    <t>$V_{0\text{exp}}$ [V]</t>
+  </si>
+  <si>
+    <t>e$_\text{abs}$ [V]</t>
+  </si>
+  <si>
+    <t>e$_\text{rel}$ [\%]</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,29 +309,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1859,7 +1870,7 @@
             <c:numRef>
               <c:f>R_4!$F$4:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>-7.1875</c:v>
@@ -1906,7 +1917,7 @@
                 <c:pt idx="14">
                   <c:v>-0.3125</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2128,7 +2139,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4449,16 +4460,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>265833</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>539433</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>82533</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4490,16 +4501,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>273599</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4533,16 +4544,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>273599</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4576,16 +4587,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>178349</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>113850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4914,8 +4925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B92EBC9-46DD-42B5-A88B-A1188B57A57F}">
   <dimension ref="B2:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4924,7 +4935,7 @@
     <col min="4" max="4" width="13.44140625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="24.77734375" customWidth="1"/>
+    <col min="8" max="8" width="66.88671875" customWidth="1"/>
     <col min="9" max="9" width="46.21875" customWidth="1"/>
     <col min="10" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
@@ -4953,11 +4964,11 @@
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
@@ -4973,31 +4984,31 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="str">
         <f>F3</f>
-        <v>$\frac{1}{4}$</v>
+        <v>$\frac{1}{4}</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="str">
         <f>G3</f>
-        <v>$\frac{S_1}{R}$</v>
+        <v>\frac{S_1}{R}$</v>
       </c>
       <c r="K3" s="1" t="str">
         <f>H3</f>
-        <v>$\frac{1}{4}$</v>
+        <v>$\frac{1}{4}</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -5008,78 +5019,78 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" ref="H4:H6" si="0">F4</f>
-        <v>$\frac{5}{32}$</v>
+        <v>$\frac{5}{32}</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" ref="J4:J6" si="1">G4</f>
-        <v>$\frac{S_2}{R}$</v>
+        <v>\frac{S_2}{R}$</v>
       </c>
       <c r="K4" s="1" t="str">
         <f t="shared" ref="K4:K6" si="2">H4</f>
-        <v>$\frac{5}{32}$</v>
+        <v>$\frac{5}{32}</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>$\frac{21}{128}$</v>
+        <v>$\frac{21}{128}</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>$\frac{S_3}{R}$</v>
+        <v>\frac{S_3}{R}$</v>
       </c>
       <c r="K5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>$\frac{21}{128}$</v>
+        <v>$\frac{21}{128}</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5090,37 +5101,37 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>$\frac{58}{512}$</v>
+        <v>$\frac{58}{512}</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>$\frac{S_4}{R}$</v>
+        <v>\frac{S_4}{R}$</v>
       </c>
       <c r="K6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>$\frac{58}{512}$</v>
+        <v>$\frac{58}{512}</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
@@ -5146,10 +5157,10 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="8"/>
+      <c r="L8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -5161,35 +5172,35 @@
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>24</v>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="str">
         <f>F9</f>
-        <v>$\frac{3}{16}$</v>
+        <v>$\frac{3}{16}</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1" t="str">
         <f>G9</f>
-        <v>$\frac{S_1}{R}$</v>
+        <v>\frac{S_1}{R}$</v>
       </c>
       <c r="K9" s="1" t="str">
         <f>H9</f>
-        <v>$\frac{3}{16}$</v>
+        <v>$\frac{3}{16}</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
@@ -5206,72 +5217,72 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" ref="H10:H12" si="3">F10</f>
-        <v>$\frac{1}{4}$</v>
+        <v>$\frac{1}{4}</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" ref="J10:K12" si="4">G10</f>
-        <v>$\frac{S_2}{R}$</v>
+        <v>\frac{S_2}{R}$</v>
       </c>
       <c r="K10" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>$\frac{1}{4}$</v>
+        <v>$\frac{1}{4}</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>$\frac{5}{32}$</v>
+        <v>$\frac{5}{32}</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>$\frac{S_3}{R}$</v>
+        <v>\frac{S_3}{R}$</v>
       </c>
       <c r="K11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>$\frac{5}{32}$</v>
+        <v>$\frac{5}{32}</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5282,37 +5293,37 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>$\frac{21}{128}$</v>
+        <v>$\frac{21}{128}</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>$\frac{S_4}{R}$</v>
+        <v>\frac{S_4}{R}$</v>
       </c>
       <c r="K12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>$\frac{21}{128}$</v>
+        <v>$\frac{21}{128}</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -5338,10 +5349,10 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="8"/>
+      <c r="L14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
@@ -5353,35 +5364,35 @@
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>25</v>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" ref="H15:H18" si="5">F15</f>
-        <v>$\frac{11}{64}$</v>
+        <v>$\frac{11}{64}</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J15" s="1" t="str">
         <f>G15</f>
-        <v>$\frac{S_1}{R}$</v>
+        <v>\frac{S_1}{R}$</v>
       </c>
       <c r="K15" s="1" t="str">
         <f>H15</f>
-        <v>$\frac{11}{64}$</v>
+        <v>$\frac{11}{64}</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
@@ -5394,76 +5405,76 @@
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>24</v>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>$\frac{3}{16}$</v>
+        <v>$\frac{3}{16}</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" ref="J16:K18" si="6">G16</f>
-        <v>$\frac{S_2}{R}$</v>
+        <v>\frac{S_2}{R}$</v>
       </c>
       <c r="K16" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>$\frac{3}{16}$</v>
+        <v>$\frac{3}{16}</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>$\frac{1}{4}$</v>
+        <v>$\frac{1}{4}</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>$\frac{S_3}{R}$</v>
+        <v>\frac{S_3}{R}$</v>
       </c>
       <c r="K17" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>$\frac{1}{4}$</v>
+        <v>$\frac{1}{4}</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5474,37 +5485,37 @@
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$\frac{5}{32}$</v>
+        <v>$\frac{5}{32}</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J18" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>$\frac{S_4}{R}$</v>
+        <v>\frac{S_4}{R}$</v>
       </c>
       <c r="K18" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>$\frac{5}{32}$</v>
+        <v>$\frac{5}{32}</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
@@ -5530,10 +5541,10 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="8"/>
+      <c r="L20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
@@ -5545,35 +5556,35 @@
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>26</v>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" ref="H21:H24" si="7">F21</f>
-        <v>$\frac{43}{256}$</v>
+        <v>$\frac{43}{256}</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1" t="str">
         <f>G21</f>
-        <v>$\frac{S_1}{R}$</v>
+        <v>\frac{S_1}{R}$</v>
       </c>
       <c r="K21" s="1" t="str">
         <f>H21</f>
-        <v>$\frac{43}{256}$</v>
+        <v>$\frac{43}{256}</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
@@ -5586,76 +5597,76 @@
       <c r="D22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>25</v>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>$\frac{11}{64}$</v>
+        <v>$\frac{11}{64}</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" ref="J22:K24" si="8">G22</f>
-        <v>$\frac{S_2}{R}$</v>
+        <v>\frac{S_2}{R}$</v>
       </c>
       <c r="K22" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>$\frac{11}{64}$</v>
+        <v>$\frac{11}{64}</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="4">
+      <c r="B23" s="1">
         <v>3</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>$\frac{3}{16}$</v>
+        <v>$\frac{3}{16}</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>$\frac{S_3}{R}$</v>
+        <v>\frac{S_3}{R}$</v>
       </c>
       <c r="K23" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>$\frac{3}{16}$</v>
+        <v>$\frac{3}{16}</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5672,161 +5683,160 @@
         <v>7</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>$\frac{1}{4}$</v>
+        <v>$\frac{1}{4}</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J24" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>$\frac{S_4}{R}$</v>
+        <v>\frac{S_4}{R}$</v>
       </c>
       <c r="K24" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>$\frac{1}{4}$</v>
+        <v>$\frac{1}{4}</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="9"/>
+      <c r="G28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="13">
+      <c r="B29" s="5">
         <f>B3</f>
         <v>1</v>
       </c>
-      <c r="C29" s="13" t="str">
+      <c r="C29" s="5" t="str">
         <f>C3</f>
         <v>$R$</v>
       </c>
-      <c r="D29" s="13" t="str">
+      <c r="D29" s="5" t="str">
         <f>D3</f>
         <v>$2R$</v>
       </c>
-      <c r="E29" s="13" t="str">
+      <c r="E29" s="5" t="str">
         <f>E3</f>
         <v>$2R$</v>
       </c>
-      <c r="F29" s="13" t="str">
+      <c r="F29" s="5" t="str">
         <f>_xlfn.CONCAT(F3,G3)</f>
-        <v>$\frac{1}{4}$$\frac{S_1}{R}$</v>
-      </c>
-      <c r="G29" s="13" t="str">
+        <v>$\frac{1}{4}\frac{S_1}{R}$</v>
+      </c>
+      <c r="G29" s="5" t="str">
         <f>_xlfn.CONCAT(H3,I3,J3)</f>
-        <v>$\frac{1}{4}$$\frac{1}{2^3}$$\frac{S_1}{R}$</v>
-      </c>
-      <c r="H29" s="4" t="str">
+        <v>$\frac{1}{4}\frac{1}{2^3}\frac{S_1}{R}$</v>
+      </c>
+      <c r="H29" s="1" t="str">
         <f>_xlfn.CONCAT(K3,L3,M3)</f>
-        <v>$\frac{1}{4}$$\frac{4}{2^3}$$S_1$</v>
+        <v>$\frac{1}{4}\frac{4}{2^3}S_1$</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="4">
+      <c r="B30" s="1">
         <f t="shared" ref="B30:E32" si="9">B4</f>
         <v>2</v>
       </c>
-      <c r="C30" s="4" t="str">
+      <c r="C30" s="1" t="str">
         <f t="shared" si="9"/>
         <v>$2R$</v>
       </c>
-      <c r="D30" s="4" t="str">
+      <c r="D30" s="1" t="str">
         <f t="shared" si="9"/>
         <v>$\frac{5}{3}R$</v>
       </c>
-      <c r="E30" s="4" t="str">
+      <c r="E30" s="1" t="str">
         <f t="shared" si="9"/>
         <v>$2R$</v>
       </c>
-      <c r="F30" s="4" t="str">
+      <c r="F30" s="1" t="str">
         <f t="shared" ref="F30:F32" si="10">_xlfn.CONCAT(F4,G4)</f>
-        <v>$\frac{5}{32}$$\frac{S_2}{R}$</v>
-      </c>
-      <c r="G30" s="4" t="str">
+        <v>$\frac{5}{32}\frac{S_2}{R}$</v>
+      </c>
+      <c r="G30" s="1" t="str">
         <f t="shared" ref="G30:G32" si="11">_xlfn.CONCAT(H4,I4,J4)</f>
-        <v>$\frac{5}{32}$$\frac{1}{2^2}$$\frac{S_2}{R}$</v>
+        <v>$\frac{5}{32}\frac{1}{2^2}\frac{S_2}{R}$</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" ref="H30:H32" si="12">_xlfn.CONCAT(K4,L4,M4)</f>
-        <v>$\frac{5}{32}$$\frac{4}{2^2}$$S_2$</v>
+        <v>$\frac{5}{32}\frac{4}{2^2}S_2$</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="4">
+      <c r="B31" s="1">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="C31" s="4" t="str">
+      <c r="C31" s="1" t="str">
         <f t="shared" si="9"/>
         <v>$2R$</v>
       </c>
-      <c r="D31" s="4" t="str">
+      <c r="D31" s="1" t="str">
         <f t="shared" si="9"/>
         <v>$\frac{21}{11}R$</v>
       </c>
-      <c r="E31" s="4" t="str">
+      <c r="E31" s="1" t="str">
         <f t="shared" si="9"/>
         <v>$2R$</v>
       </c>
-      <c r="F31" s="4" t="str">
+      <c r="F31" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>$\frac{21}{128}$$\frac{S_3}{R}$</v>
-      </c>
-      <c r="G31" s="4" t="str">
+        <v>$\frac{21}{128}\frac{S_3}{R}$</v>
+      </c>
+      <c r="G31" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>$\frac{21}{128}$$\frac{1}{2^1}$$\frac{S_3}{R}$</v>
-      </c>
-      <c r="H31" s="4" t="str">
+        <v>$\frac{21}{128}\frac{1}{2^1}\frac{S_3}{R}$</v>
+      </c>
+      <c r="H31" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>$\frac{21}{128}$$\frac{4}{2^1}$$S_3$</v>
+        <v>$\frac{21}{128}\frac{4}{2^1}S_3$</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5848,128 +5858,128 @@
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>$\frac{58}{512}$$\frac{S_4}{R}$</v>
+        <v>$\frac{58}{512}\frac{S_4}{R}$</v>
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>$\frac{58}{512}$$\frac{1}{2^0}$$\frac{S_4}{R}$</v>
+        <v>$\frac{58}{512}\frac{1}{2^0}\frac{S_4}{R}$</v>
       </c>
       <c r="H32" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>$\frac{58}{512}$$\frac{4}{2^0}$$S_4$</v>
+        <v>$\frac{58}{512}\frac{4}{2^0}S_4$</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>12</v>
+      <c r="G34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="13">
+      <c r="B35" s="5">
         <f>B9</f>
         <v>1</v>
       </c>
-      <c r="C35" s="13" t="str">
+      <c r="C35" s="5" t="str">
         <f>C9</f>
         <v>$2R$</v>
       </c>
-      <c r="D35" s="13" t="str">
+      <c r="D35" s="5" t="str">
         <f>D9</f>
         <v>$2R$</v>
       </c>
-      <c r="E35" s="13" t="str">
+      <c r="E35" s="5" t="str">
         <f>E9</f>
         <v>$\frac{5}{3}R$</v>
       </c>
-      <c r="F35" s="13" t="str">
+      <c r="F35" s="5" t="str">
         <f>_xlfn.CONCAT(F9,G9)</f>
-        <v>$\frac{3}{16}$$\frac{S_1}{R}$</v>
-      </c>
-      <c r="G35" s="13" t="str">
+        <v>$\frac{3}{16}\frac{S_1}{R}$</v>
+      </c>
+      <c r="G35" s="5" t="str">
         <f>_xlfn.CONCAT(H9,I9,J9)</f>
-        <v>$\frac{3}{16}$$\frac{1}{3}\frac{1}{2^2}$$\frac{S_1}{R}$</v>
-      </c>
-      <c r="H35" s="4" t="str">
+        <v>$\frac{3}{16}\frac{1}{3}\frac{1}{2^2}\frac{S_1}{R}$</v>
+      </c>
+      <c r="H35" s="1" t="str">
         <f>_xlfn.CONCAT(K9,L9,M9)</f>
-        <v>$\frac{3}{16}$$\frac{1}{3}\frac{4}{2^2}$$S_1$</v>
+        <v>$\frac{3}{16}\frac{1}{3}\frac{4}{2^2}S_1$</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="4">
+      <c r="B36" s="1">
         <f t="shared" ref="B36:E36" si="13">B10</f>
         <v>2</v>
       </c>
-      <c r="C36" s="4" t="str">
+      <c r="C36" s="1" t="str">
         <f t="shared" si="13"/>
         <v>$R$</v>
       </c>
-      <c r="D36" s="4" t="str">
+      <c r="D36" s="1" t="str">
         <f t="shared" si="13"/>
         <v>$2R$</v>
       </c>
-      <c r="E36" s="4" t="str">
+      <c r="E36" s="1" t="str">
         <f t="shared" si="13"/>
         <v>$2R$</v>
       </c>
-      <c r="F36" s="4" t="str">
+      <c r="F36" s="1" t="str">
         <f t="shared" ref="F36:F38" si="14">_xlfn.CONCAT(F10,G10)</f>
-        <v>$\frac{1}{4}$$\frac{S_2}{R}$</v>
-      </c>
-      <c r="G36" s="4" t="str">
+        <v>$\frac{1}{4}\frac{S_2}{R}$</v>
+      </c>
+      <c r="G36" s="1" t="str">
         <f t="shared" ref="G36:G38" si="15">_xlfn.CONCAT(H10,I10,J10)</f>
-        <v>$\frac{1}{4}$$\frac{1}{2^2}$$\frac{S_2}{R}$</v>
+        <v>$\frac{1}{4}\frac{1}{2^2}\frac{S_2}{R}$</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" ref="H36:H38" si="16">_xlfn.CONCAT(K10,L10,M10)</f>
-        <v>$\frac{1}{4}$$\frac{4}{2^2}$$S_2$</v>
+        <v>$\frac{1}{4}\frac{4}{2^2}S_2$</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="4">
+      <c r="B37" s="1">
         <f t="shared" ref="B37:E37" si="17">B11</f>
         <v>3</v>
       </c>
-      <c r="C37" s="4" t="str">
+      <c r="C37" s="1" t="str">
         <f t="shared" si="17"/>
         <v>$2R$</v>
       </c>
-      <c r="D37" s="4" t="str">
+      <c r="D37" s="1" t="str">
         <f t="shared" si="17"/>
         <v>$\frac{5}{3}R$</v>
       </c>
-      <c r="E37" s="4" t="str">
+      <c r="E37" s="1" t="str">
         <f t="shared" si="17"/>
         <v>$2R$</v>
       </c>
-      <c r="F37" s="4" t="str">
+      <c r="F37" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>$\frac{5}{32}$$\frac{S_3}{R}$</v>
-      </c>
-      <c r="G37" s="4" t="str">
+        <v>$\frac{5}{32}\frac{S_3}{R}$</v>
+      </c>
+      <c r="G37" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>$\frac{5}{32}$$\frac{1}{2^1}$$\frac{S_3}{R}$</v>
-      </c>
-      <c r="H37" s="4" t="str">
+        <v>$\frac{5}{32}\frac{1}{2^1}\frac{S_3}{R}$</v>
+      </c>
+      <c r="H37" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>$\frac{5}{32}$$\frac{4}{2^1}$$S_3$</v>
+        <v>$\frac{5}{32}\frac{4}{2^1}S_3$</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5991,128 +6001,128 @@
       </c>
       <c r="F38" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>$\frac{21}{128}$$\frac{S_4}{R}$</v>
+        <v>$\frac{21}{128}\frac{S_4}{R}$</v>
       </c>
       <c r="G38" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>$\frac{21}{128}$$\frac{1}{2^0}$$\frac{S_4}{R}$</v>
+        <v>$\frac{21}{128}\frac{1}{2^0}\frac{S_4}{R}$</v>
       </c>
       <c r="H38" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>$\frac{21}{128}$$\frac{4}{2^0}$$S_4$</v>
+        <v>$\frac{21}{128}\frac{4}{2^0}S_4$</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>12</v>
+      <c r="G40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="13">
+      <c r="B41" s="5">
         <f>B15</f>
         <v>1</v>
       </c>
-      <c r="C41" s="13" t="str">
+      <c r="C41" s="5" t="str">
         <f>C15</f>
         <v>$R$</v>
       </c>
-      <c r="D41" s="13" t="str">
+      <c r="D41" s="5" t="str">
         <f>D15</f>
         <v>$2R$</v>
       </c>
-      <c r="E41" s="13" t="str">
+      <c r="E41" s="5" t="str">
         <f>E15</f>
         <v>$\frac{21}{11}R$</v>
       </c>
-      <c r="F41" s="13" t="str">
+      <c r="F41" s="5" t="str">
         <f>_xlfn.CONCAT(F15,G15)</f>
-        <v>$\frac{11}{64}$$\frac{S_1}{R}$</v>
-      </c>
-      <c r="G41" s="13" t="str">
+        <v>$\frac{11}{64}\frac{S_1}{R}$</v>
+      </c>
+      <c r="G41" s="5" t="str">
         <f>_xlfn.CONCAT(H15,I15,J15)</f>
-        <v>$\frac{11}{64}$$\frac{2}{2 + 5/3}\frac{1}{3}\frac{1}{2^1}$$\frac{S_1}{R}$</v>
-      </c>
-      <c r="H41" s="4" t="str">
+        <v>$\frac{11}{64}\frac{2}{2 + 5/3}\frac{1}{3}\frac{1}{2^1}\frac{S_1}{R}$</v>
+      </c>
+      <c r="H41" s="1" t="str">
         <f>_xlfn.CONCAT(K15,L15,M15)</f>
-        <v>$\frac{11}{64}$$\frac{2}{2 + 5/3}\frac{1}{3}\frac{4}{2^1}$$S_1$</v>
+        <v>$\frac{11}{64}\frac{2}{2 + 5/3}\frac{1}{3}\frac{4}{2^1}S_1$</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="4">
+      <c r="B42" s="1">
         <f t="shared" ref="B42:E42" si="19">B16</f>
         <v>2</v>
       </c>
-      <c r="C42" s="4" t="str">
+      <c r="C42" s="1" t="str">
         <f t="shared" si="19"/>
         <v>$2R$</v>
       </c>
-      <c r="D42" s="4" t="str">
+      <c r="D42" s="1" t="str">
         <f t="shared" si="19"/>
         <v>$2R$</v>
       </c>
-      <c r="E42" s="4" t="str">
+      <c r="E42" s="1" t="str">
         <f t="shared" si="19"/>
         <v>$\frac{5}{3}R$</v>
       </c>
-      <c r="F42" s="4" t="str">
+      <c r="F42" s="1" t="str">
         <f t="shared" ref="F42:F44" si="20">_xlfn.CONCAT(F16,G16)</f>
-        <v>$\frac{3}{16}$$\frac{S_2}{R}$</v>
-      </c>
-      <c r="G42" s="4" t="str">
+        <v>$\frac{3}{16}\frac{S_2}{R}$</v>
+      </c>
+      <c r="G42" s="1" t="str">
         <f t="shared" ref="G42:G44" si="21">_xlfn.CONCAT(H16,I16,J16)</f>
-        <v>$\frac{3}{16}$$\frac{1}{3}\frac{1}{2^1}$$\frac{S_2}{R}$</v>
+        <v>$\frac{3}{16}\frac{1}{3}\frac{1}{2^1}\frac{S_2}{R}$</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" ref="H42:H44" si="22">_xlfn.CONCAT(K16,L16,M16)</f>
-        <v>$\frac{3}{16}$$\frac{1}{3}\frac{4}{2^1}$$S_2$</v>
+        <v>$\frac{3}{16}\frac{1}{3}\frac{4}{2^1}S_2$</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="4">
+      <c r="B43" s="1">
         <f t="shared" ref="B43:E43" si="23">B17</f>
         <v>3</v>
       </c>
-      <c r="C43" s="4" t="str">
+      <c r="C43" s="1" t="str">
         <f t="shared" si="23"/>
         <v>$R$</v>
       </c>
-      <c r="D43" s="4" t="str">
+      <c r="D43" s="1" t="str">
         <f t="shared" si="23"/>
         <v>$2R$</v>
       </c>
-      <c r="E43" s="4" t="str">
+      <c r="E43" s="1" t="str">
         <f t="shared" si="23"/>
         <v>$2R$</v>
       </c>
-      <c r="F43" s="4" t="str">
+      <c r="F43" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>$\frac{1}{4}$$\frac{S_3}{R}$</v>
-      </c>
-      <c r="G43" s="4" t="str">
+        <v>$\frac{1}{4}\frac{S_3}{R}$</v>
+      </c>
+      <c r="G43" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>$\frac{1}{4}$$\frac{1}{2^1}$$\frac{S_3}{R}$</v>
-      </c>
-      <c r="H43" s="4" t="str">
+        <v>$\frac{1}{4}\frac{1}{2^1}\frac{S_3}{R}$</v>
+      </c>
+      <c r="H43" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>$\frac{1}{4}$$\frac{4}{2^1}$$S_3$</v>
+        <v>$\frac{1}{4}\frac{4}{2^1}S_3$</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6134,128 +6144,128 @@
       </c>
       <c r="F44" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>$\frac{5}{32}$$\frac{S_4}{R}$</v>
+        <v>$\frac{5}{32}\frac{S_4}{R}$</v>
       </c>
       <c r="G44" s="3" t="str">
         <f t="shared" si="21"/>
-        <v>$\frac{5}{32}$$\frac{1}{2^0}$$\frac{S_4}{R}$</v>
+        <v>$\frac{5}{32}\frac{1}{2^0}\frac{S_4}{R}$</v>
       </c>
       <c r="H44" s="3" t="str">
         <f t="shared" si="22"/>
-        <v>$\frac{5}{32}$$\frac{4}{2^0}$$S_4$</v>
+        <v>$\frac{5}{32}\frac{4}{2^0}S_4$</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>12</v>
+      <c r="G46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="13">
+      <c r="B47" s="5">
         <f>B21</f>
         <v>1</v>
       </c>
-      <c r="C47" s="13" t="str">
+      <c r="C47" s="5" t="str">
         <f>C21</f>
         <v>$2R$</v>
       </c>
-      <c r="D47" s="13" t="str">
+      <c r="D47" s="5" t="str">
         <f>D21</f>
         <v>$2R$</v>
       </c>
-      <c r="E47" s="13" t="str">
+      <c r="E47" s="5" t="str">
         <f>E21</f>
         <v>$\frac{85}{43}R$</v>
       </c>
-      <c r="F47" s="13" t="str">
+      <c r="F47" s="5" t="str">
         <f>_xlfn.CONCAT(F21,G21)</f>
-        <v>$\frac{43}{256}$$\frac{S_1}{R}$</v>
-      </c>
-      <c r="G47" s="13" t="str">
+        <v>$\frac{43}{256}\frac{S_1}{R}$</v>
+      </c>
+      <c r="G47" s="5" t="str">
         <f>_xlfn.CONCAT(H21,I21,J21)</f>
-        <v>$\frac{43}{256}$$\frac{2}{2 + 21/3}\frac{2}{2 + 5/3}\frac{1}{3}\frac{1}{2^0}$$\frac{S_1}{R}$</v>
-      </c>
-      <c r="H47" s="13" t="str">
-        <f>_xlfn.CONCAT(L21,M21)</f>
-        <v>$\frac{2}{2 + 21/3}\frac{2}{2 + 5/3}\frac{1}{3}\frac{4}{2^0}$$S_1$</v>
+        <v>$\frac{43}{256}\frac{2}{2 + 21/11}\frac{2}{2 + 5/3}\frac{1}{3}\frac{1}{2^0}\frac{S_1}{R}$</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f>_xlfn.CONCAT(K21,L21,M21)</f>
+        <v>$\frac{43}{256}\frac{2}{2 + 21/3}\frac{2}{2 + 5/3}\frac{1}{3}\frac{4}{2^0}S_1$</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="4">
+      <c r="B48" s="1">
         <f t="shared" ref="B48:E48" si="25">B22</f>
         <v>2</v>
       </c>
-      <c r="C48" s="4" t="str">
+      <c r="C48" s="1" t="str">
         <f t="shared" si="25"/>
         <v>$2R$</v>
       </c>
-      <c r="D48" s="4" t="str">
+      <c r="D48" s="1" t="str">
         <f t="shared" si="25"/>
         <v>$2R$</v>
       </c>
-      <c r="E48" s="4" t="str">
+      <c r="E48" s="1" t="str">
         <f t="shared" si="25"/>
         <v>$\frac{21}{11}R$</v>
       </c>
-      <c r="F48" s="4" t="str">
+      <c r="F48" s="1" t="str">
         <f t="shared" ref="F48:F50" si="26">_xlfn.CONCAT(F22,G22)</f>
-        <v>$\frac{11}{64}$$\frac{S_2}{R}$</v>
-      </c>
-      <c r="G48" s="4" t="str">
+        <v>$\frac{11}{64}\frac{S_2}{R}$</v>
+      </c>
+      <c r="G48" s="1" t="str">
         <f t="shared" ref="G48:G50" si="27">_xlfn.CONCAT(H22,I22,J22)</f>
-        <v>$\frac{11}{64}$$\frac{2}{2 + 5/3}\frac{1}{3}\frac{1}{2^0}$$\frac{S_2}{R}$</v>
-      </c>
-      <c r="H48" s="4" t="str">
-        <f t="shared" ref="H48:H50" si="28">_xlfn.CONCAT(L22,M22)</f>
-        <v>$\frac{2}{2 + 5/3}\frac{1}{3}\frac{4}{2^0}$$S_2$</v>
+        <v>$\frac{11}{64}\frac{2}{2 + 5/3}\frac{1}{3}\frac{1}{2^0}\frac{S_2}{R}$</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" ref="H48:H50" si="28">_xlfn.CONCAT(K22,L22,M22)</f>
+        <v>$\frac{11}{64}\frac{2}{2 + 5/3}\frac{1}{3}\frac{4}{2^0}S_2$</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="4">
+      <c r="B49" s="1">
         <f t="shared" ref="B49:E49" si="29">B23</f>
         <v>3</v>
       </c>
-      <c r="C49" s="4" t="str">
+      <c r="C49" s="1" t="str">
         <f t="shared" si="29"/>
         <v>$2R$</v>
       </c>
-      <c r="D49" s="4" t="str">
+      <c r="D49" s="1" t="str">
         <f t="shared" si="29"/>
         <v>$2R$</v>
       </c>
-      <c r="E49" s="4" t="str">
+      <c r="E49" s="1" t="str">
         <f t="shared" si="29"/>
         <v>$\frac{5}{3}R$</v>
       </c>
-      <c r="F49" s="4" t="str">
+      <c r="F49" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>$\frac{3}{16}$$\frac{S_3}{R}$</v>
-      </c>
-      <c r="G49" s="4" t="str">
+        <v>$\frac{3}{16}\frac{S_3}{R}$</v>
+      </c>
+      <c r="G49" s="1" t="str">
         <f t="shared" si="27"/>
-        <v>$\frac{3}{16}$$\frac{1}{3}\frac{1}{2^0}$$\frac{S_3}{R}$</v>
-      </c>
-      <c r="H49" s="4" t="str">
+        <v>$\frac{3}{16}\frac{1}{3}\frac{1}{2^0}\frac{S_3}{R}$</v>
+      </c>
+      <c r="H49" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>$\frac{1}{3}\frac{4}{2^0}$$S_3$</v>
+        <v>$\frac{3}{16}\frac{1}{3}\frac{4}{2^0}S_3$</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6277,15 +6287,15 @@
       </c>
       <c r="F50" s="3" t="str">
         <f t="shared" si="26"/>
-        <v>$\frac{1}{4}$$\frac{S_4}{R}$</v>
+        <v>$\frac{1}{4}\frac{S_4}{R}$</v>
       </c>
       <c r="G50" s="3" t="str">
         <f t="shared" si="27"/>
-        <v>$\frac{1}{4}$$\frac{1}{2^0}$$\frac{S_4}{R}$</v>
+        <v>$\frac{1}{4}\frac{1}{2^0}\frac{S_4}{R}$</v>
       </c>
       <c r="H50" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>$\frac{4}{2^0}$$S_4$</v>
+        <v>$\frac{1}{4}\frac{4}{2^0}S_4$</v>
       </c>
     </row>
   </sheetData>
@@ -6306,651 +6316,725 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D543D2BF-C894-47F2-B024-4DC565A85F28}">
-  <dimension ref="A2:N24"/>
+  <dimension ref="A2:U24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="12"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="12"/>
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
         <f>(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^C$2))*5</f>
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <f t="shared" ref="C4:D4" si="0">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^C$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^D$2))*5</f>
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <f>_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^E$2)*5</f>
         <v>5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <f>-(1/8*B4+5/32*C4+21/64*D4+85/128*E4)</f>
         <v>-6.3671875</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="12"/>
+      <c r="G4" s="9">
+        <v>-6.4697777152000002</v>
+      </c>
+      <c r="H4" s="9">
+        <f>G4-F4</f>
+        <v>-0.10259021520000022</v>
+      </c>
+      <c r="I4" s="9">
+        <f>H4/ABS(G4)*100</f>
+        <v>-1.5856837702318007</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <f t="shared" ref="B5:D5" si="1">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A5-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A5-15))/10^C$2))*5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" ref="E5:E19" si="2">_xlfn.FLOOR.MATH(DEC2BIN(ABS($A5-15))/10^E$2)*5</f>
         <v>5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <f t="shared" ref="F5:F19" si="3">-(1/8*B5+5/32*C5+21/64*D5+85/128*E5)</f>
         <v>-5.7421875</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="12"/>
+      <c r="G5" s="9">
+        <v>-5.8310285184000001</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" ref="H5:H19" si="4">G5-F5</f>
+        <v>-8.8841018400000138E-2</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" ref="I5:I18" si="5">H5/ABS(G5)*100</f>
+        <v>-1.5235908745714315</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
-        <f t="shared" ref="B6:D6" si="4">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A6-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A6-15))/10^C$2))*5</f>
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:D6" si="6">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A6-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A6-15))/10^C$2))*5</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <f t="shared" si="3"/>
         <v>-5.5859375</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="12"/>
+      <c r="G6" s="9">
+        <v>-5.654590803199997</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="4"/>
+        <v>-6.8653303199996962E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.2141162037957776</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
-        <f t="shared" ref="B7:D7" si="5">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A7-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A7-15))/10^C$2))*5</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B7" s="1">
+        <f t="shared" ref="B7:D7" si="7">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A7-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A7-15))/10^C$2))*5</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <f t="shared" si="3"/>
         <v>-4.9609375</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="12"/>
+      <c r="G7" s="9">
+        <v>-5.0292419391999985</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="4"/>
+        <v>-6.8304439199998512E-2</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.3581458204984207</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
-        <f t="shared" ref="B8:D8" si="6">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A8-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A8-15))/10^C$2))*5</f>
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="B8" s="1">
+        <f t="shared" ref="B8:D8" si="8">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A8-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A8-15))/10^C$2))*5</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <f t="shared" si="3"/>
         <v>-4.7265625</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="12"/>
+      <c r="G8" s="9">
+        <v>-4.7813357824000011</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="4"/>
+        <v>-5.4773282400001122E-2</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.1455644383232912</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <f t="shared" ref="B9:D9" si="7">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A9-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A9-15))/10^C$2))*5</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" ref="B9:D9" si="9">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A9-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A9-15))/10^C$2))*5</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <f t="shared" si="3"/>
         <v>-4.1015625</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="12"/>
+      <c r="G9" s="9">
+        <v>-4.1537535296000003</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="4"/>
+        <v>-5.2191029600000327E-2</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.2564787300951445</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
-        <f t="shared" ref="B10:D10" si="8">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A10-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A10-15))/10^C$2))*5</f>
-        <v>5</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:D10" si="10">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A10-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A10-15))/10^C$2))*5</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <f t="shared" si="3"/>
         <v>-3.9453125</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="12"/>
+      <c r="G10" s="9">
+        <v>-3.9795492031999995</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="4"/>
+        <v>-3.4236703199999496E-2</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.86031611752580894</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
-        <f t="shared" ref="B11:D11" si="9">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A11-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A11-15))/10^C$2))*5</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="B11" s="1">
+        <f t="shared" ref="B11:D11" si="11">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A11-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A11-15))/10^C$2))*5</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <f t="shared" si="3"/>
         <v>-3.3203125</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="12"/>
+      <c r="G11" s="9">
+        <v>-3.3340998399999977</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="4"/>
+        <v>-1.3787339999997705E-2</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.4135251090740496</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
-        <f t="shared" ref="B12:D12" si="10">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A12-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A12-15))/10^C$2))*5</f>
-        <v>5</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="B12" s="1">
+        <f t="shared" ref="B12:D12" si="12">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A12-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A12-15))/10^C$2))*5</f>
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <f t="shared" si="3"/>
         <v>-3.046875</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="12"/>
+      <c r="G12" s="9">
+        <v>-3.1018274048000007</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="4"/>
+        <v>-5.4952404800000743E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.7716138788045801</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="4">
-        <f t="shared" ref="B13:D13" si="11">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A13-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A13-15))/10^C$2))*5</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="B13" s="1">
+        <f t="shared" ref="B13:D13" si="13">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A13-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A13-15))/10^C$2))*5</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <f t="shared" si="3"/>
         <v>-2.421875</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="G13" s="9">
+        <v>-2.4653115967999999</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="4"/>
+        <v>-4.3436596799999894E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.7619110240012277</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="4">
-        <f t="shared" ref="B14:D14" si="12">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A14-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A14-15))/10^C$2))*5</f>
-        <v>5</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="B14" s="1">
+        <f t="shared" ref="B14:D14" si="14">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A14-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A14-15))/10^C$2))*5</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <f t="shared" si="3"/>
         <v>-2.265625</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="12"/>
+      <c r="G14" s="9">
+        <v>-2.2777069375999992</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="4"/>
+        <v>-1.2081937599999204E-2</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.53044302585871039</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="4">
-        <f t="shared" ref="B15:D15" si="13">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A15-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A15-15))/10^C$2))*5</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="B15" s="1">
+        <f t="shared" ref="B15:D15" si="15">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A15-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A15-15))/10^C$2))*5</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <f t="shared" si="3"/>
         <v>-1.640625</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="12"/>
+      <c r="G15" s="9">
+        <v>-1.6501246847999993</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.4996847999992973E-3</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.5756949694471537</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="4">
-        <f t="shared" ref="B16:D16" si="14">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A16-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A16-15))/10^C$2))*5</f>
-        <v>5</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="B16" s="1">
+        <f t="shared" ref="B16:D16" si="16">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A16-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A16-15))/10^C$2))*5</f>
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <f t="shared" si="3"/>
         <v>-1.40625</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="G16" s="9">
+        <v>-1.4223190271999995</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="4"/>
+        <v>-1.6069027199999475E-2</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.1297765756275668</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="4">
-        <f t="shared" ref="B17:D17" si="15">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A17-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A17-15))/10^C$2))*5</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="B17" s="1">
+        <f t="shared" ref="B17:D17" si="17">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A17-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A17-15))/10^C$2))*5</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <f t="shared" si="3"/>
         <v>-0.78125</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="G17" s="9">
+        <v>-0.77686966399999946</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="4"/>
+        <v>4.3803360000005398E-3</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="5"/>
+        <v>0.56384438767331535</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="U17" s="8"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="4">
-        <f t="shared" ref="B18:D18" si="16">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A18-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A18-15))/10^C$2))*5</f>
-        <v>5</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="B18" s="1">
+        <f t="shared" ref="B18:D18" si="18">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A18-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A18-15))/10^C$2))*5</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <f t="shared" si="3"/>
         <v>-0.625</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="G18" s="9">
+        <v>-0.61829905920000028</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="4"/>
+        <v>6.7009407999997217E-3</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="5"/>
+        <v>1.0837701756606068</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="4">
-        <f t="shared" ref="B19:D19" si="17">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A19-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A19-15))/10^C$2))*5</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="B19" s="1">
+        <f t="shared" ref="B19:D19" si="19">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A19-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A19-15))/10^C$2))*5</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="12"/>
+      <c r="G19" s="9">
+        <v>1.1516582400000057E-2</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="4"/>
+        <v>1.1516582400000057E-2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6962,444 +7046,442 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E575E1BB-EA1A-477B-A102-BDB406ECF838}">
   <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>51</v>
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
         <f>(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^C$2))*5</f>
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <f t="shared" ref="C4:D4" si="0">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^C$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^D$2))*5</f>
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <f>_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^E$2)*5</f>
         <v>5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <f>-(1/16*B4+1/4*C4+5/16*D4+21/32*E4)</f>
         <v>-6.40625</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <f t="shared" ref="B5:D19" si="1">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A5-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A5-15))/10^C$2))*5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" ref="E5:E19" si="2">_xlfn.FLOOR.MATH(DEC2BIN(ABS($A5-15))/10^E$2)*5</f>
         <v>5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <f t="shared" ref="F5:F19" si="3">-(1/16*B5+1/4*C5+5/16*D5+21/32*E5)</f>
         <v>-6.09375</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <f t="shared" si="3"/>
         <v>-5.15625</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <f t="shared" si="3"/>
         <v>-4.84375</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <f t="shared" si="3"/>
         <v>-4.84375</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <f t="shared" si="3"/>
         <v>-4.53125</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <f t="shared" si="3"/>
         <v>-3.59375</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <f t="shared" si="3"/>
         <v>-3.28125</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <f t="shared" si="3"/>
         <v>-3.125</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <f t="shared" si="3"/>
         <v>-2.8125</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <f t="shared" si="3"/>
         <v>-1.875</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <f t="shared" si="3"/>
         <v>-1.5625</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <f t="shared" si="3"/>
         <v>-1.5625</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <f t="shared" si="3"/>
         <v>-1.25</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <f t="shared" si="3"/>
         <v>-0.3125</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7414,444 +7496,442 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAEEE70-9281-4F4D-AC9E-037165995119}">
   <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F4:F19"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>51</v>
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
         <f>(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^C$2))*5</f>
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <f t="shared" ref="C4:D4" si="0">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^C$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^D$2))*5</f>
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <f>_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^E$2)*5</f>
         <v>5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <f>-(1/16*B4+1/8*C4+1/2*D4+5/8*E4)</f>
         <v>-6.5625</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <f t="shared" ref="B5:D19" si="1">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A5-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A5-15))/10^C$2))*5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" ref="E5:E19" si="2">_xlfn.FLOOR.MATH(DEC2BIN(ABS($A5-15))/10^E$2)*5</f>
         <v>5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <f t="shared" ref="F5:F19" si="3">-(1/16*B5+1/8*C5+1/2*D5+5/8*E5)</f>
         <v>-6.25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <f t="shared" si="3"/>
         <v>-5.9375</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <f t="shared" si="3"/>
         <v>-5.625</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <f t="shared" si="3"/>
         <v>-4.0625</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <f t="shared" si="3"/>
         <v>-3.75</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <f t="shared" si="3"/>
         <v>-3.4375</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <f t="shared" si="3"/>
         <v>-3.125</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <f t="shared" si="3"/>
         <v>-3.4375</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <f t="shared" si="3"/>
         <v>-3.125</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <f t="shared" si="3"/>
         <v>-2.8125</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <f t="shared" si="3"/>
         <v>-2.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <f t="shared" si="3"/>
         <v>-0.9375</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <f t="shared" si="3"/>
         <v>-0.625</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <f t="shared" si="3"/>
         <v>-0.3125</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7864,448 +7944,633 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033CFEB6-2CED-4527-83A7-250A28625B49}">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F19"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
         <f>(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^C$2))*5</f>
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <f t="shared" ref="C4:D4" si="0">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^C$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^D$2))*5</f>
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <f>_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^E$2)*5</f>
         <v>5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="10">
         <f>-(1/16*B4+1/8*C4+1/4*D4+1/1*E4)</f>
         <v>-7.1875</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="G4" s="9">
+        <v>-7.3139986815999993</v>
+      </c>
+      <c r="H4" s="9">
+        <f>G4-F4</f>
+        <v>-0.12649868159999933</v>
+      </c>
+      <c r="I4" s="9">
+        <f>H4/ABS(G4)*100</f>
+        <v>-1.7295420344856649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <f t="shared" ref="B5:D19" si="1">(_xlfn.FLOOR.MATH(DEC2BIN(ABS($A5-15))/10^B$2) - 10*_xlfn.FLOOR.MATH(DEC2BIN(ABS($A5-15))/10^C$2))*5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" ref="E5:E19" si="2">_xlfn.FLOOR.MATH(DEC2BIN(ABS($A5-15))/10^E$2)*5</f>
         <v>5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="10">
         <f t="shared" ref="F5:F19" si="3">-(1/16*B5+1/8*C5+1/4*D5+1/1*E5)</f>
         <v>-6.875</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="G5" s="9">
+        <v>-6.9313447338666681</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" ref="H5:H19" si="4">G5-F5</f>
+        <v>-5.6344733866668051E-2</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" ref="I5:I18" si="5">H5/ABS(G5)*100</f>
+        <v>-0.81289758380313593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="10">
         <f t="shared" si="3"/>
         <v>-6.5625</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="G6" s="9">
+        <v>-6.6127145983999993</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="4"/>
+        <v>-5.0214598399999311E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.75936436773105476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="10">
         <f t="shared" si="3"/>
         <v>-6.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="G7" s="9">
+        <v>-6.2791952042666672</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="4"/>
+        <v>-2.9195204266667218E-2</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.46495137222090643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="10">
         <f t="shared" si="3"/>
         <v>-5.9375</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="G8" s="9">
+        <v>-5.9903435861333314</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="4"/>
+        <v>-5.2843586133331399E-2</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.88214616363000764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="10">
         <f t="shared" si="3"/>
         <v>-5.625</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="G9" s="9">
+        <v>-5.6568241919999993</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="4"/>
+        <v>-3.1824191999999307E-2</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.56258053847608969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="10">
         <f t="shared" si="3"/>
         <v>-5.3125</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="G10" s="9">
+        <v>-5.3381940565333315</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="4"/>
+        <v>-2.5694056533331455E-2</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.48132488742864088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="10">
         <f t="shared" si="3"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="G11" s="9">
+        <v>-5.0255196245333318</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="4"/>
+        <v>-2.5519624533331786E-2</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.50780071395505755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="10">
         <f t="shared" si="3"/>
         <v>-2.1875</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="G12" s="9">
+        <v>-2.2352725503999995</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="4"/>
+        <v>-4.7772550399999503E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="5"/>
+        <v>-2.1372136651278009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="10">
         <f t="shared" si="3"/>
         <v>-1.875</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="G13" s="9">
+        <v>-1.9196202666666675</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="4"/>
+        <v>-4.4620266666667519E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="5"/>
+        <v>-2.3244319432065885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="10">
         <f t="shared" si="3"/>
         <v>-1.5625</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="G14" s="9">
+        <v>-1.5861008725333332</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="4"/>
+        <v>-2.3600872533333206E-2</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.487980552941611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="10">
         <f t="shared" si="3"/>
         <v>-1.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="G15" s="9">
+        <v>-1.2674707370666669</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="4"/>
+        <v>-1.7470737066666908E-2</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.3783937219016029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="10">
         <f t="shared" si="3"/>
         <v>-0.9375</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="G16" s="9">
+        <v>-0.95777415680000033</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="4"/>
+        <v>-2.0274156800000331E-2</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="5"/>
+        <v>-2.1167993160034615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="10">
         <f t="shared" si="3"/>
         <v>-0.625</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="G17" s="9">
+        <v>-0.62723261440000022</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="4"/>
+        <v>-2.2326144000002213E-3</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.3559467968890459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="10">
         <f t="shared" si="3"/>
         <v>-0.3125</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="G18" s="9">
+        <v>-0.31158033066666657</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="4"/>
+        <v>9.1966933333342826E-4</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="5"/>
+        <v>0.29516283372755792</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1.5983360000000058E-2</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="4"/>
+        <v>1.5983360000000058E-2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Lab_2/Alteracao_Resistencias.xlsx
+++ b/Lab_2/Alteracao_Resistencias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IST\EG_Labs\Lab_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w\Documents\GitHub\EG_Labs\Lab_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AEB82B-795E-4685-ABDC-37F93FAFA75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4F84B0-DBC4-4269-BB3C-AC447033A5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{D881EB74-4916-4A57-BF83-A0FDA6FE2D9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{D881EB74-4916-4A57-BF83-A0FDA6FE2D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -316,15 +316,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,7 +597,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -635,7 +635,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="585202576"/>
@@ -719,7 +719,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -757,7 +757,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="585202256"/>
@@ -805,7 +805,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1069,7 +1069,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1107,7 +1107,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="585202576"/>
@@ -1191,7 +1191,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1229,7 +1229,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="585202256"/>
@@ -1277,7 +1277,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1541,7 +1541,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1579,7 +1579,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="585202576"/>
@@ -1663,7 +1663,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1701,7 +1701,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="585202256"/>
@@ -1749,7 +1749,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2013,7 +2013,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2051,7 +2051,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="585202576"/>
@@ -2135,7 +2135,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2173,7 +2173,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="585202256"/>
@@ -2221,7 +2221,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4929,20 +4929,20 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="66.88671875" customWidth="1"/>
-    <col min="9" max="9" width="46.21875" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.85546875" customWidth="1"/>
+    <col min="9" max="9" width="46.28515625" customWidth="1"/>
     <col min="10" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4955,22 +4955,22 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -5151,18 +5151,18 @@
       <c r="G8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="H8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>2</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>3</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
@@ -5343,18 +5343,18 @@
       <c r="G14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="H14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>4</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
@@ -5535,18 +5535,18 @@
       <c r="G20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="H20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>1</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>2</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>3</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>4</v>
       </c>
@@ -5710,8 +5710,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -5725,8 +5725,8 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <f>B3</f>
         <v>1</v>
@@ -5779,7 +5779,7 @@
         <v>$\frac{1}{4}\frac{4}{2^3}S_1$</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" ref="B30:E32" si="9">B4</f>
         <v>2</v>
@@ -5809,7 +5809,7 @@
         <v>$\frac{5}{32}\frac{4}{2^2}S_2$</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" si="9"/>
         <v>3</v>
@@ -5839,7 +5839,7 @@
         <v>$\frac{21}{128}\frac{4}{2^1}S_3$</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <f t="shared" si="9"/>
         <v>4</v>
@@ -5869,7 +5869,7 @@
         <v>$\frac{58}{512}\frac{4}{2^0}S_4$</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <f>B9</f>
         <v>1</v>
@@ -5922,7 +5922,7 @@
         <v>$\frac{3}{16}\frac{1}{3}\frac{4}{2^2}S_1$</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f t="shared" ref="B36:E36" si="13">B10</f>
         <v>2</v>
@@ -5952,7 +5952,7 @@
         <v>$\frac{1}{4}\frac{4}{2^2}S_2$</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f t="shared" ref="B37:E37" si="17">B11</f>
         <v>3</v>
@@ -5982,7 +5982,7 @@
         <v>$\frac{5}{32}\frac{4}{2^1}S_3$</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <f t="shared" ref="B38:E38" si="18">B12</f>
         <v>4</v>
@@ -6012,7 +6012,7 @@
         <v>$\frac{21}{128}\frac{4}{2^0}S_4$</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5">
         <f>B15</f>
         <v>1</v>
@@ -6065,7 +6065,7 @@
         <v>$\frac{11}{64}\frac{2}{2 + 5/3}\frac{1}{3}\frac{4}{2^1}S_1$</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <f t="shared" ref="B42:E42" si="19">B16</f>
         <v>2</v>
@@ -6095,7 +6095,7 @@
         <v>$\frac{3}{16}\frac{1}{3}\frac{4}{2^1}S_2$</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <f t="shared" ref="B43:E43" si="23">B17</f>
         <v>3</v>
@@ -6125,7 +6125,7 @@
         <v>$\frac{1}{4}\frac{4}{2^1}S_3$</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <f t="shared" ref="B44:E44" si="24">B18</f>
         <v>4</v>
@@ -6155,7 +6155,7 @@
         <v>$\frac{5}{32}\frac{4}{2^0}S_4$</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="5">
         <f>B21</f>
         <v>1</v>
@@ -6208,7 +6208,7 @@
         <v>$\frac{43}{256}\frac{2}{2 + 21/3}\frac{2}{2 + 5/3}\frac{1}{3}\frac{4}{2^0}S_1$</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <f t="shared" ref="B48:E48" si="25">B22</f>
         <v>2</v>
@@ -6238,7 +6238,7 @@
         <v>$\frac{11}{64}\frac{2}{2 + 5/3}\frac{1}{3}\frac{4}{2^0}S_2$</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <f t="shared" ref="B49:E49" si="29">B23</f>
         <v>3</v>
@@ -6268,7 +6268,7 @@
         <v>$\frac{3}{16}\frac{1}{3}\frac{4}{2^0}S_3$</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <f t="shared" ref="B50:E50" si="30">B24</f>
         <v>4</v>
@@ -6322,9 +6322,9 @@
       <selection activeCell="A3" sqref="A3:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -6370,7 +6370,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -6394,21 +6394,21 @@
         <f>-(1/8*B4+5/32*C4+21/64*D4+85/128*E4)</f>
         <v>-6.3671875</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>-6.4697777152000002</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <f>G4-F4</f>
         <v>-0.10259021520000022</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <f>H4/ABS(G4)*100</f>
         <v>-1.5856837702318007</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -6432,21 +6432,21 @@
         <f t="shared" ref="F5:F19" si="3">-(1/8*B5+5/32*C5+21/64*D5+85/128*E5)</f>
         <v>-5.7421875</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>-5.8310285184000001</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <f t="shared" ref="H5:H19" si="4">G5-F5</f>
         <v>-8.8841018400000138E-2</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <f t="shared" ref="I5:I18" si="5">H5/ABS(G5)*100</f>
         <v>-1.5235908745714315</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -6470,21 +6470,21 @@
         <f t="shared" si="3"/>
         <v>-5.5859375</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>-5.654590803199997</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <f t="shared" si="4"/>
         <v>-6.8653303199996962E-2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <f t="shared" si="5"/>
         <v>-1.2141162037957776</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -6508,19 +6508,19 @@
         <f t="shared" si="3"/>
         <v>-4.9609375</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>-5.0292419391999985</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <f t="shared" si="4"/>
         <v>-6.8304439199998512E-2</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <f t="shared" si="5"/>
         <v>-1.3581458204984207</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -6544,19 +6544,19 @@
         <f t="shared" si="3"/>
         <v>-4.7265625</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>-4.7813357824000011</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <f t="shared" si="4"/>
         <v>-5.4773282400001122E-2</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <f t="shared" si="5"/>
         <v>-1.1455644383232912</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -6580,14 +6580,14 @@
         <f t="shared" si="3"/>
         <v>-4.1015625</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>-4.1537535296000003</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <f t="shared" si="4"/>
         <v>-5.2191029600000327E-2</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <f t="shared" si="5"/>
         <v>-1.2564787300951445</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -6619,14 +6619,14 @@
         <f t="shared" si="3"/>
         <v>-3.9453125</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>-3.9795492031999995</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <f t="shared" si="4"/>
         <v>-3.4236703199999496E-2</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <f t="shared" si="5"/>
         <v>-0.86031611752580894</v>
       </c>
@@ -6634,7 +6634,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -6658,14 +6658,14 @@
         <f t="shared" si="3"/>
         <v>-3.3203125</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>-3.3340998399999977</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <f t="shared" si="4"/>
         <v>-1.3787339999997705E-2</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <f t="shared" si="5"/>
         <v>-0.4135251090740496</v>
       </c>
@@ -6673,7 +6673,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -6697,14 +6697,14 @@
         <f t="shared" si="3"/>
         <v>-3.046875</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>-3.1018274048000007</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <f t="shared" si="4"/>
         <v>-5.4952404800000743E-2</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <f t="shared" si="5"/>
         <v>-1.7716138788045801</v>
       </c>
@@ -6712,7 +6712,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -6736,19 +6736,19 @@
         <f t="shared" si="3"/>
         <v>-2.421875</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>-2.4653115967999999</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <f t="shared" si="4"/>
         <v>-4.3436596799999894E-2</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <f t="shared" si="5"/>
         <v>-1.7619110240012277</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -6772,19 +6772,19 @@
         <f t="shared" si="3"/>
         <v>-2.265625</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>-2.2777069375999992</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <f t="shared" si="4"/>
         <v>-1.2081937599999204E-2</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <f t="shared" si="5"/>
         <v>-0.53044302585871039</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -6808,14 +6808,14 @@
         <f t="shared" si="3"/>
         <v>-1.640625</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>-1.6501246847999993</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <f t="shared" si="4"/>
         <v>-9.4996847999992973E-3</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <f t="shared" si="5"/>
         <v>-0.5756949694471537</v>
       </c>
@@ -6823,7 +6823,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -6847,14 +6847,14 @@
         <f t="shared" si="3"/>
         <v>-1.40625</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>-1.4223190271999995</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <f t="shared" si="4"/>
         <v>-1.6069027199999475E-2</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <f t="shared" si="5"/>
         <v>-1.1297765756275668</v>
       </c>
@@ -6862,7 +6862,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -6886,23 +6886,23 @@
         <f t="shared" si="3"/>
         <v>-0.78125</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>-0.77686966399999946</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <f t="shared" si="4"/>
         <v>4.3803360000005398E-3</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <f t="shared" si="5"/>
         <v>0.56384438767331535</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="U17" s="8"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U17" s="7"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -6926,14 +6926,14 @@
         <f t="shared" si="3"/>
         <v>-0.625</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>-0.61829905920000028</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <f t="shared" si="4"/>
         <v>6.7009407999997217E-3</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <f t="shared" si="5"/>
         <v>1.0837701756606068</v>
       </c>
@@ -6941,7 +6941,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -6965,10 +6965,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>1.1516582400000057E-2</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <f t="shared" si="4"/>
         <v>1.1516582400000057E-2</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -6984,7 +6984,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -6997,7 +6997,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -7010,7 +7010,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -7023,7 +7023,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -7050,9 +7050,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>-6.40625</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>-6.09375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>-5.15625</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>-4.84375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>-4.84375</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>-4.53125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>-3.59375</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>-3.28125</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>-3.125</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>-2.8125</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>-1.875</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>-1.5625</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>-1.5625</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>-1.25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>-0.3125</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -7500,9 +7500,9 @@
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>-6.5625</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>-6.25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>-5.9375</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>-5.625</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>-4.0625</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>-3.75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>-3.4375</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>-3.125</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>-3.4375</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>-3.125</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>-2.8125</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>-0.9375</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>-0.625</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>-0.3125</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -7946,16 +7946,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033CFEB6-2CED-4527-83A7-250A28625B49}">
   <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8018,23 +8018,23 @@
         <f>_xlfn.FLOOR.MATH(DEC2BIN(ABS($A4-15))/10^E$2)*5</f>
         <v>5</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <f>-(1/16*B4+1/8*C4+1/4*D4+1/1*E4)</f>
         <v>-7.1875</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>-7.3139986815999993</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <f>G4-F4</f>
         <v>-0.12649868159999933</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <f>H4/ABS(G4)*100</f>
         <v>-1.7295420344856649</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -8054,23 +8054,23 @@
         <f t="shared" ref="E5:E19" si="2">_xlfn.FLOOR.MATH(DEC2BIN(ABS($A5-15))/10^E$2)*5</f>
         <v>5</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <f t="shared" ref="F5:F19" si="3">-(1/16*B5+1/8*C5+1/4*D5+1/1*E5)</f>
         <v>-6.875</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>-6.9313447338666681</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <f t="shared" ref="H5:H19" si="4">G5-F5</f>
         <v>-5.6344733866668051E-2</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <f t="shared" ref="I5:I18" si="5">H5/ABS(G5)*100</f>
         <v>-0.81289758380313593</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8090,23 +8090,23 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <f t="shared" si="3"/>
         <v>-6.5625</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>-6.6127145983999993</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <f t="shared" si="4"/>
         <v>-5.0214598399999311E-2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <f t="shared" si="5"/>
         <v>-0.75936436773105476</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -8126,23 +8126,23 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <f t="shared" si="3"/>
         <v>-6.25</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>-6.2791952042666672</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <f t="shared" si="4"/>
         <v>-2.9195204266667218E-2</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <f t="shared" si="5"/>
         <v>-0.46495137222090643</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -8162,23 +8162,23 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <f t="shared" si="3"/>
         <v>-5.9375</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>-5.9903435861333314</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <f t="shared" si="4"/>
         <v>-5.2843586133331399E-2</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <f t="shared" si="5"/>
         <v>-0.88214616363000764</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -8198,23 +8198,23 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <f t="shared" si="3"/>
         <v>-5.625</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>-5.6568241919999993</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <f t="shared" si="4"/>
         <v>-3.1824191999999307E-2</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <f t="shared" si="5"/>
         <v>-0.56258053847608969</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -8234,23 +8234,23 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <f t="shared" si="3"/>
         <v>-5.3125</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>-5.3381940565333315</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <f t="shared" si="4"/>
         <v>-2.5694056533331455E-2</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <f t="shared" si="5"/>
         <v>-0.48132488742864088</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -8270,23 +8270,23 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <f t="shared" si="3"/>
         <v>-5</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>-5.0255196245333318</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <f t="shared" si="4"/>
         <v>-2.5519624533331786E-2</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <f t="shared" si="5"/>
         <v>-0.50780071395505755</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -8306,23 +8306,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <f t="shared" si="3"/>
         <v>-2.1875</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>-2.2352725503999995</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <f t="shared" si="4"/>
         <v>-4.7772550399999503E-2</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <f t="shared" si="5"/>
         <v>-2.1372136651278009</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -8342,23 +8342,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <f t="shared" si="3"/>
         <v>-1.875</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>-1.9196202666666675</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <f t="shared" si="4"/>
         <v>-4.4620266666667519E-2</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <f t="shared" si="5"/>
         <v>-2.3244319432065885</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -8378,23 +8378,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <f t="shared" si="3"/>
         <v>-1.5625</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>-1.5861008725333332</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <f t="shared" si="4"/>
         <v>-2.3600872533333206E-2</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <f t="shared" si="5"/>
         <v>-1.487980552941611</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -8414,23 +8414,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <f t="shared" si="3"/>
         <v>-1.25</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>-1.2674707370666669</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <f t="shared" si="4"/>
         <v>-1.7470737066666908E-2</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <f t="shared" si="5"/>
         <v>-1.3783937219016029</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -8450,23 +8450,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <f t="shared" si="3"/>
         <v>-0.9375</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>-0.95777415680000033</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <f t="shared" si="4"/>
         <v>-2.0274156800000331E-2</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <f t="shared" si="5"/>
         <v>-2.1167993160034615</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -8486,23 +8486,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <f t="shared" si="3"/>
         <v>-0.625</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>-0.62723261440000022</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <f t="shared" si="4"/>
         <v>-2.2326144000002213E-3</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <f t="shared" si="5"/>
         <v>-0.3559467968890459</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -8522,23 +8522,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <f t="shared" si="3"/>
         <v>-0.3125</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>-0.31158033066666657</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <f t="shared" si="4"/>
         <v>9.1966933333342826E-4</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <f t="shared" si="5"/>
         <v>0.29516283372755792</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -8558,14 +8558,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>1.5983360000000058E-2</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <f t="shared" si="4"/>
         <v>1.5983360000000058E-2</v>
       </c>
